--- a/monthlyExpense.xlsx
+++ b/monthlyExpense.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="192" windowWidth="22980" windowHeight="9408" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="192" windowWidth="22980" windowHeight="9408" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Oct2017" sheetId="1" r:id="rId1"/>
@@ -116,12 +121,12 @@
     <definedName name="variable" localSheetId="2">IF(#REF!="Variable Rate",TRUE,FALSE)</definedName>
     <definedName name="variable">IF(#REF!="Variable Rate",TRUE,FALSE)</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="64">
   <si>
     <t>Desc</t>
   </si>
@@ -311,6 +316,9 @@
   <si>
     <t>quto</t>
   </si>
+  <si>
+    <t>Paid</t>
+  </si>
 </sst>
 </file>
 
@@ -321,7 +329,7 @@
     <numFmt numFmtId="164" formatCode="0.00?%_)"/>
     <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,6 +735,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -744,7 +753,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent3 2" xfId="2"/>
@@ -834,6 +842,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -909,7 +920,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -944,7 +955,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1159,14 +1170,14 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +1194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1197,7 +1208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1214,7 +1225,7 @@
         <v>43018</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1231,7 +1242,7 @@
         <v>43030</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1248,7 +1259,7 @@
         <v>43011</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1262,7 +1273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1276,7 +1287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1291,7 +1302,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1307,7 +1318,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1322,7 +1333,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1336,7 +1347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1353,7 +1364,7 @@
         <v>43013</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1367,7 +1378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1381,7 +1392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1395,18 +1406,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <f>SUM(B2:B15)</f>
         <v>125673.82</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1417,7 +1428,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1428,7 +1439,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1436,7 +1447,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1444,7 +1455,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1458,12 +1469,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J497"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="38" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="39" customWidth="1"/>
@@ -1473,7 +1484,7 @@
     <col min="11" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1">
+    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -1487,7 +1498,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="3" customHeight="1">
+    <row r="2" spans="1:10" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1499,7 +1510,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -1511,23 +1522,23 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1">
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
@@ -1548,7 +1559,7 @@
         <v>32624.59157417313</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
@@ -1569,7 +1580,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
@@ -1590,7 +1601,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
@@ -1611,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
@@ -1632,7 +1643,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20" t="s">
@@ -1648,7 +1659,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1660,15 +1671,15 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="23"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1676,7 +1687,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="22"/>
       <c r="C13" s="24"/>
@@ -1688,7 +1699,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="6" customHeight="1">
+    <row r="14" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1700,7 +1711,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" ht="3.75" customHeight="1">
+    <row r="15" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -1712,7 +1723,7 @@
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:10" s="30" customFormat="1" ht="27.6">
+    <row r="16" spans="1:10" s="30" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>45</v>
       </c>
@@ -1744,7 +1755,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="30" customFormat="1" ht="6" customHeight="1">
+    <row r="17" spans="1:10" s="30" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -1756,7 +1767,7 @@
       <c r="I17" s="32"/>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="1:10" s="30" customFormat="1">
+    <row r="18" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34">
         <f>IF(Values_Entered,1,"")</f>
         <v>1</v>
@@ -1798,7 +1809,7 @@
         <v>27708.333333333336</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="30" customFormat="1" ht="12.75" customHeight="1">
+    <row r="19" spans="1:10" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34">
         <f t="shared" ref="A19:A82" si="4">IF(Values_Entered,A18+1,"")</f>
         <v>2</v>
@@ -1840,7 +1851,7 @@
         <v>55377.74628892669</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="30" customFormat="1" ht="12.75" customHeight="1">
+    <row r="20" spans="1:10" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -1882,7 +1893,7 @@
         <v>83007.930747122955</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="30" customFormat="1">
+    <row r="21" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -1924,7 +1935,7 @@
         <v>110598.5761489844</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="30" customFormat="1">
+    <row r="22" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -1966,7 +1977,7 @@
         <v>138149.36947698169</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="34">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -2008,7 +2019,7 @@
         <v>165659.99523553011</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="34">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -2050,7 +2061,7 @@
         <v>193130.13543137148</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="34">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -2092,7 +2103,7 @@
         <v>220559.46955380109</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="34">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -2134,7 +2145,7 @@
         <v>247947.67455473772</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="34">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2176,7 +2187,7 @@
         <v>275294.42482863623</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="34">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -2218,7 +2229,7 @@
         <v>302599.39219224092</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="34">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -2260,7 +2271,7 @@
         <v>329862.24586417858</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="34">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -2302,7 +2313,7 @@
         <v>357082.65244439023</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="34">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -2344,7 +2355,7 @@
         <v>384260.27589339967</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="34">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -2386,7 +2397,7 @@
         <v>411394.77751141821</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="34">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -2428,7 +2439,7 @@
         <v>438485.81591728388</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="34">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -2470,7 +2481,7 @@
         <v>465533.04702723376</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="34">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -2512,7 +2523,7 @@
         <v>492536.12403350859</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="34">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -2554,7 +2565,7 @@
         <v>519494.69738278753</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="34">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -2596,7 +2607,7 @@
         <v>546408.41475445277</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="34">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -2638,7 +2649,7 @@
         <v>573276.92103868141</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="34">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -2680,7 +2691,7 @@
         <v>600099.85831436468</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="34">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -2722,7 +2733,7 @@
         <v>626876.86582685157</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="34">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -2764,7 +2775,7 @@
         <v>653607.57996551681</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="34">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -2806,7 +2817,7 @@
         <v>680291.63424115092</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="34">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -2848,7 +2859,7 @@
         <v>706928.6592631716</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="34">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -2890,7 +2901,7 @@
         <v>733518.28271665447</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="34">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -2932,7 +2943,7 @@
         <v>760060.12933918182</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="34">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -2974,7 +2985,7 @@
         <v>786553.82089750865</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="34">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -3016,7 +3027,7 @@
         <v>812998.9761640433</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="34">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -3058,7 +3069,7 @@
         <v>839395.2108931425</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="34">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -3100,7 +3111,7 @@
         <v>865742.13779721828</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="34">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -3142,7 +3153,7 @@
         <v>892039.36652265571</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="34">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -3184,7 +3195,7 @@
         <v>918286.50362554064</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="34">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -3226,7 +3237,7 @@
         <v>944483.15254719462</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="34">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -3268,7 +3279,7 @@
         <v>970628.91358951607</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="34">
         <f t="shared" si="4"/>
         <v>37</v>
@@ -3310,7 +3321,7 @@
         <v>996723.38389012706</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="34">
         <f t="shared" si="4"/>
         <v>38</v>
@@ -3352,7 +3363,7 @@
         <v>1022766.1573973224</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="34">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -3394,7 +3405,7 @@
         <v>1048756.8248448207</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="34">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -3436,7 +3447,7 @@
         <v>1074694.9737263161</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="34">
         <f t="shared" si="4"/>
         <v>41</v>
@@ -3478,7 +3489,7 @@
         <v>1100580.188269828</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="34">
         <f t="shared" si="4"/>
         <v>42</v>
@@ -3520,7 +3531,7 @@
         <v>1126412.049411847</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="34">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -3562,7 +3573,7 @@
         <v>1152190.1347712781</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="34">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -3604,7 +3615,7 @@
         <v>1177914.018623176</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="34">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -3646,7 +3657,7 @@
         <v>1203583.2718722725</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="34">
         <f t="shared" si="4"/>
         <v>46</v>
@@ -3688,7 +3699,7 @@
         <v>1229197.4620262955</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="34">
         <f t="shared" si="4"/>
         <v>47</v>
@@ -3730,7 +3741,7 @@
         <v>1254756.1531690755</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="34">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -3772,7 +3783,7 @@
         <v>1280258.9059334404</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="34">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -3814,7 +3825,7 @@
         <v>1305705.2774738944</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="34">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -3856,7 +3867,7 @@
         <v>1331094.8214390813</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="34">
         <f t="shared" si="4"/>
         <v>51</v>
@@ -3898,7 +3909,7 @@
         <v>1356427.0879440305</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="34">
         <f t="shared" si="4"/>
         <v>52</v>
@@ -3940,7 +3951,7 @@
         <v>1381701.6235421817</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="34">
         <f t="shared" si="4"/>
         <v>53</v>
@@ -3982,7 +3993,7 @@
         <v>1406917.9711971893</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="34">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -4024,7 +4035,7 @@
         <v>1432075.6702545036</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="34">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -4066,7 +4077,7 @@
         <v>1457174.2564127261</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="34">
         <f t="shared" si="4"/>
         <v>56</v>
@@ -4108,7 +4119,7 @@
         <v>1482213.2616947391</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="34">
         <f t="shared" si="4"/>
         <v>57</v>
@@ -4150,7 +4161,7 @@
         <v>1507192.2144186057</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="34">
         <f t="shared" si="4"/>
         <v>58</v>
@@ -4192,7 +4203,7 @@
         <v>1532110.6391682406</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="34">
         <f t="shared" si="4"/>
         <v>59</v>
@@ -4234,7 +4245,7 @@
         <v>1556968.0567638481</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="34">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -4276,7 +4287,7 @@
         <v>1581763.9842321251</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="34">
         <f t="shared" si="4"/>
         <v>61</v>
@@ -4318,7 +4329,7 @@
         <v>1606497.9347762305</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="34">
         <f t="shared" si="4"/>
         <v>62</v>
@@ -4360,7 +4371,7 @@
         <v>1631169.4177455145</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="34">
         <f t="shared" si="4"/>
         <v>63</v>
@@ -4402,7 +4413,7 @@
         <v>1655777.9386050098</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="34">
         <f t="shared" si="4"/>
         <v>64</v>
@@ -4444,7 +4455,7 @@
         <v>1680322.9989046806</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="34">
         <f t="shared" si="4"/>
         <v>65</v>
@@ -4486,7 +4497,7 @@
         <v>1704804.0962484283</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="34">
         <f t="shared" ref="A83:A146" si="13">IF(Values_Entered,A82+1,"")</f>
         <v>66</v>
@@ -4528,7 +4539,7 @@
         <v>1729220.7242628518</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="34">
         <f t="shared" si="13"/>
         <v>67</v>
@@ -4570,7 +4581,7 @@
         <v>1753572.3725657605</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="34">
         <f t="shared" si="13"/>
         <v>68</v>
@@ -4612,7 +4623,7 @@
         <v>1777858.5267344385</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="34">
         <f t="shared" si="13"/>
         <v>69</v>
@@ -4654,7 +4665,7 @@
         <v>1802078.6682736562</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="34">
         <f t="shared" si="13"/>
         <v>70</v>
@@ -4696,7 +4707,7 @@
         <v>1826232.2745834305</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="34">
         <f t="shared" si="13"/>
         <v>71</v>
@@ -4738,7 +4749,7 @@
         <v>1850318.8189265283</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="34">
         <f t="shared" si="13"/>
         <v>72</v>
@@ -4780,7 +4791,7 @@
         <v>1874337.7703957136</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="34">
         <f t="shared" si="13"/>
         <v>73</v>
@@ -4822,7 +4833,7 @@
         <v>1898288.5938807344</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="34">
         <f t="shared" si="13"/>
         <v>74</v>
@@ -4864,7 +4875,7 @@
         <v>1922170.7500350494</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="34">
         <f t="shared" si="13"/>
         <v>75</v>
@@ -4906,7 +4917,7 @@
         <v>1945983.6952422904</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="34">
         <f t="shared" si="13"/>
         <v>76</v>
@@ -4948,7 +4959,7 @@
         <v>1969726.8815824599</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="34">
         <f t="shared" si="13"/>
         <v>77</v>
@@ -4990,7 +5001,7 @@
         <v>1993399.7567978601</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="34">
         <f t="shared" si="13"/>
         <v>78</v>
@@ -5032,7 +5043,7 @@
         <v>2017001.7642587535</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="34">
         <f t="shared" si="13"/>
         <v>79</v>
@@ -5074,7 +5085,7 @@
         <v>2040532.34292875</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="34">
         <f t="shared" si="13"/>
         <v>80</v>
@@ -5116,7 +5127,7 @@
         <v>2063990.9273299219</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="34">
         <f t="shared" si="13"/>
         <v>81</v>
@@ -5158,7 +5169,7 @@
         <v>2087376.9475076408</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="34">
         <f t="shared" si="13"/>
         <v>82</v>
@@ -5200,7 +5211,7 @@
         <v>2110689.8289951379</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="34">
         <f t="shared" si="13"/>
         <v>83</v>
@@ -5242,7 +5253,7 @@
         <v>2133928.992777782</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="34">
         <f t="shared" si="13"/>
         <v>84</v>
@@ -5284,7 +5295,7 @@
         <v>2157093.8552570767</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="34">
         <f t="shared" si="13"/>
         <v>85</v>
@@ -5326,7 +5337,7 @@
         <v>2180183.8282143702</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="34">
         <f t="shared" si="13"/>
         <v>86</v>
@@ -5368,7 +5379,7 @@
         <v>2203198.3187742801</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="34">
         <f t="shared" si="13"/>
         <v>87</v>
@@ -5410,7 +5421,7 @@
         <v>2226136.7293678271</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="34">
         <f t="shared" si="13"/>
         <v>88</v>
@@ -5452,7 +5463,7 @@
         <v>2248998.4576952774</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="34">
         <f t="shared" si="13"/>
         <v>89</v>
@@ -5494,7 +5505,7 @@
         <v>2271782.8966886909</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="34">
         <f t="shared" si="13"/>
         <v>90</v>
@@ -5536,7 +5547,7 @@
         <v>2294489.4344741735</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="34">
         <f t="shared" si="13"/>
         <v>91</v>
@@ -5578,7 +5589,7 @@
         <v>2317117.4543338288</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="34">
         <f t="shared" si="13"/>
         <v>92</v>
@@ -5620,7 +5631,7 @@
         <v>2339666.3346674112</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="34">
         <f t="shared" si="13"/>
         <v>93</v>
@@ -5662,7 +5673,7 @@
         <v>2362135.4489536718</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="34">
         <f t="shared" si="13"/>
         <v>94</v>
@@ -5704,7 +5715,7 @@
         <v>2384524.1657114034</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="34">
         <f t="shared" si="13"/>
         <v>95</v>
@@ -5746,7 +5757,7 @@
         <v>2406831.8484601714</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="34">
         <f t="shared" si="13"/>
         <v>96</v>
@@ -5788,7 +5799,7 @@
         <v>2429057.8556807386</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="34">
         <f t="shared" si="13"/>
         <v>97</v>
@@ -5830,7 +5841,7 @@
         <v>2451201.5407751729</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="34">
         <f t="shared" si="13"/>
         <v>98</v>
@@ -5872,7 +5883,7 @@
         <v>2473262.2520266427</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="34">
         <f t="shared" si="13"/>
         <v>99</v>
@@ -5914,7 +5925,7 @@
         <v>2495239.3325588908</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="34">
         <f t="shared" si="13"/>
         <v>100</v>
@@ -5956,7 +5967,7 @@
         <v>2517132.1202953905</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="34">
         <f t="shared" si="13"/>
         <v>101</v>
@@ -5998,7 +6009,7 @@
         <v>2538939.9479181753</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="34">
         <f t="shared" si="13"/>
         <v>102</v>
@@ -6040,7 +6051,7 @@
         <v>2560662.1428263448</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="34">
         <f t="shared" si="13"/>
         <v>103</v>
@@ -6082,7 +6093,7 @@
         <v>2582298.0270942417</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="34">
         <f t="shared" si="13"/>
         <v>104</v>
@@ -6124,7 +6135,7 @@
         <v>2603846.9174292972</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="34">
         <f t="shared" si="13"/>
         <v>105</v>
@@ -6166,7 +6177,7 @@
         <v>2625308.1251295432</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="34">
         <f t="shared" si="13"/>
         <v>106</v>
@@ -6208,7 +6219,7 @@
         <v>2646680.9560407875</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="34">
         <f t="shared" si="13"/>
         <v>107</v>
@@ -6250,7 +6261,7 @@
         <v>2667964.7105134502</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="34">
         <f t="shared" si="13"/>
         <v>108</v>
@@ -6292,7 +6303,7 @@
         <v>2689158.683359059</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="34">
         <f t="shared" si="13"/>
         <v>109</v>
@@ -6334,7 +6345,7 @@
         <v>2710262.1638064003</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="34">
         <f t="shared" si="13"/>
         <v>110</v>
@@ -6376,7 +6387,7 @@
         <v>2731274.4354573209</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="34">
         <f t="shared" si="13"/>
         <v>111</v>
@@ -6418,7 +6429,7 @@
         <v>2752194.7762421821</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="34">
         <f t="shared" si="13"/>
         <v>112</v>
@@ -6460,7 +6471,7 @@
         <v>2773022.4583749613</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="34">
         <f t="shared" si="13"/>
         <v>113</v>
@@ -6502,7 +6513,7 @@
         <v>2793756.7483079964</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="34">
         <f t="shared" si="13"/>
         <v>114</v>
@@ -6544,7 +6555,7 @@
         <v>2814396.9066863721</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="34">
         <f t="shared" si="13"/>
         <v>115</v>
@@ -6586,7 +6597,7 @@
         <v>2834942.1883019479</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="34">
         <f t="shared" si="13"/>
         <v>116</v>
@@ -6628,7 +6639,7 @@
         <v>2855391.842047018</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="34">
         <f t="shared" si="13"/>
         <v>117</v>
@@ -6670,7 +6681,7 @@
         <v>2875745.1108676079</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="34">
         <f t="shared" si="13"/>
         <v>118</v>
@@ -6712,7 +6723,7 @@
         <v>2896001.2317163986</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="34">
         <f t="shared" si="13"/>
         <v>119</v>
@@ -6754,7 +6765,7 @@
         <v>2916159.4355052803</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="34">
         <f t="shared" si="13"/>
         <v>120</v>
@@ -6796,7 +6807,7 @@
         <v>2936218.947057528</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="34">
         <f t="shared" si="13"/>
         <v>121</v>
@@ -6838,7 +6849,7 @@
         <v>2956178.9850596022</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="34">
         <f t="shared" si="13"/>
         <v>122</v>
@@ -6880,7 +6891,7 @@
         <v>2976038.7620125641</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="34">
         <f t="shared" si="13"/>
         <v>123</v>
@@ -6922,7 +6933,7 @@
         <v>2995797.484183108</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="34">
         <f t="shared" si="13"/>
         <v>124</v>
@@ -6964,7 +6975,7 @@
         <v>3015454.3515542066</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="34">
         <f t="shared" si="13"/>
         <v>125</v>
@@ -7006,7 +7017,7 @@
         <v>3035008.5577753643</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="34">
         <f t="shared" si="13"/>
         <v>126</v>
@@ -7048,7 +7059,7 @@
         <v>3054459.2901124773</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="34">
         <f t="shared" si="13"/>
         <v>127</v>
@@ -7090,7 +7101,7 @@
         <v>3073805.7293972969</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="34">
         <f t="shared" si="13"/>
         <v>128</v>
@@ -7132,7 +7143,7 @@
         <v>3093047.0499764923</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="34">
         <f t="shared" si="13"/>
         <v>129</v>
@@ -7174,7 +7185,7 @@
         <v>3112182.4196603107</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="34">
         <f t="shared" ref="A147:A210" si="22">IF(Values_Entered,A146+1,"")</f>
         <v>130</v>
@@ -7216,7 +7227,7 @@
         <v>3131210.9996708306</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="34">
         <f t="shared" si="22"/>
         <v>131</v>
@@ -7258,7 +7269,7 @@
         <v>3150131.9445898049</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="34">
         <f t="shared" si="22"/>
         <v>132</v>
@@ -7300,7 +7311,7 @@
         <v>3168944.402306092</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="34">
         <f t="shared" si="22"/>
         <v>133</v>
@@ -7342,7 +7353,7 @@
         <v>3187647.5139626712</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="34">
         <f t="shared" si="22"/>
         <v>134</v>
@@ -7384,7 +7395,7 @@
         <v>3206240.4139032359</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="34">
         <f t="shared" si="22"/>
         <v>135</v>
@@ -7426,7 +7437,7 @@
         <v>3224722.2296183677</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="34">
         <f t="shared" si="22"/>
         <v>136</v>
@@ -7468,7 +7479,7 @@
         <v>3243092.0816912823</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="34">
         <f t="shared" si="22"/>
         <v>137</v>
@@ -7510,7 +7521,7 @@
         <v>3261349.0837431452</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="34">
         <f t="shared" si="22"/>
         <v>138</v>
@@ -7552,7 +7563,7 @@
         <v>3279492.3423779565</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="34">
         <f t="shared" si="22"/>
         <v>139</v>
@@ -7594,7 +7605,7 @@
         <v>3297520.9571269979</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="34">
         <f t="shared" si="22"/>
         <v>140</v>
@@ -7636,7 +7647,7 @@
         <v>3315434.0203928403</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="34">
         <f t="shared" si="22"/>
         <v>141</v>
@@ -7678,7 +7689,7 @@
         <v>3333230.6173929083</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="34">
         <f t="shared" si="22"/>
         <v>142</v>
@@ -7720,7 +7731,7 @@
         <v>3350909.8261025981</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="34">
         <f t="shared" si="22"/>
         <v>143</v>
@@ -7762,7 +7773,7 @@
         <v>3368470.7171979439</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="34">
         <f t="shared" si="22"/>
         <v>144</v>
@@ -7804,7 +7815,7 @@
         <v>3385912.3539978326</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="34">
         <f t="shared" si="22"/>
         <v>145</v>
@@ -7846,7 +7857,7 @@
         <v>3403233.7924057581</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="34">
         <f t="shared" si="22"/>
         <v>146</v>
@@ -7888,7 +7899,7 @@
         <v>3420434.0808511176</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="34">
         <f t="shared" si="22"/>
         <v>147</v>
@@ -7930,7 +7941,7 @@
         <v>3437512.2602300406</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="34">
         <f t="shared" si="22"/>
         <v>148</v>
@@ -7972,7 +7983,7 @@
         <v>3454467.3638457512</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="34">
         <f t="shared" si="22"/>
         <v>149</v>
@@ -8014,7 +8025,7 @@
         <v>3471298.417348457</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="34">
         <f t="shared" si="22"/>
         <v>150</v>
@@ -8056,7 +8067,7 @@
         <v>3488004.4386747638</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="34">
         <f t="shared" si="22"/>
         <v>151</v>
@@ -8098,7 +8109,7 @@
         <v>3504584.4379866086</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="34">
         <f t="shared" si="22"/>
         <v>152</v>
@@ -8140,7 +8151,7 @@
         <v>3521037.4176097098</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="34">
         <f t="shared" si="22"/>
         <v>153</v>
@@ -8182,7 +8193,7 @@
         <v>3537362.3719715318</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="34">
         <f t="shared" si="22"/>
         <v>154</v>
@@ -8224,7 +8235,7 @@
         <v>3553558.2875387557</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="34">
         <f t="shared" si="22"/>
         <v>155</v>
@@ -8266,7 +8277,7 @@
         <v>3569624.1427542581</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="34">
         <f t="shared" si="22"/>
         <v>156</v>
@@ -8308,7 +8319,7 @@
         <v>3585558.9079735875</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="34">
         <f t="shared" si="22"/>
         <v>157</v>
@@ -8350,7 +8361,7 @@
         <v>3601361.5454009413</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="34">
         <f t="shared" si="22"/>
         <v>158</v>
@@ -8392,7 +8403,7 @@
         <v>3617031.0090246326</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="34">
         <f t="shared" si="22"/>
         <v>159</v>
@@ -8434,7 +8445,7 @@
         <v>3632566.2445520493</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="34">
         <f t="shared" si="22"/>
         <v>160</v>
@@ -8476,7 +8487,7 @@
         <v>3647966.189344096</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="34">
         <f t="shared" si="22"/>
         <v>161</v>
@@ -8518,7 +8529,7 @@
         <v>3663229.7723491173</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="34">
         <f t="shared" si="22"/>
         <v>162</v>
@@ -8560,7 +8571,7 @@
         <v>3678355.9140362996</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="34">
         <f t="shared" si="22"/>
         <v>163</v>
@@ -8602,7 +8613,7 @@
         <v>3693343.5263285432</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="34">
         <f t="shared" si="22"/>
         <v>164</v>
@@ -8644,7 +8655,7 @@
         <v>3708191.5125348051</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="34">
         <f t="shared" si="22"/>
         <v>165</v>
@@ -8686,7 +8697,7 @@
         <v>3722898.7672819044</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="34">
         <f t="shared" si="22"/>
         <v>166</v>
@@ -8728,7 +8739,7 @@
         <v>3737464.1764457892</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="34">
         <f t="shared" si="22"/>
         <v>167</v>
@@ -8770,7 +8781,7 @@
         <v>3751886.6170822592</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="34">
         <f t="shared" si="22"/>
         <v>168</v>
@@ -8812,7 +8823,7 @@
         <v>3766164.9573571389</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="34">
         <f t="shared" si="22"/>
         <v>169</v>
@@ -8854,7 +8865,7 @@
         <v>3780298.0564758992</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="34">
         <f t="shared" si="22"/>
         <v>170</v>
@@ -8896,7 +8907,7 @@
         <v>3794284.7646127208</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="34">
         <f t="shared" si="22"/>
         <v>171</v>
@@ -8938,7 +8949,7 @@
         <v>3808123.9228389966</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="34">
         <f t="shared" si="22"/>
         <v>172</v>
@@ -8980,7 +8991,7 @@
         <v>3821814.3630512683</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="34">
         <f t="shared" si="22"/>
         <v>173</v>
@@ -9022,7 +9033,7 @@
         <v>3835354.9078985918</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="34">
         <f t="shared" si="22"/>
         <v>174</v>
@@ -9064,7 +9075,7 @@
         <v>3848744.3707093275</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="34">
         <f t="shared" si="22"/>
         <v>175</v>
@@ -9106,7 +9117,7 @@
         <v>3861981.5554173528</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="34">
         <f t="shared" si="22"/>
         <v>176</v>
@@ -9148,7 +9159,7 @@
         <v>3875065.256487688</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="34">
         <f t="shared" si="22"/>
         <v>177</v>
@@ -9190,7 +9201,7 @@
         <v>3887994.2588415341</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="34">
         <f t="shared" si="22"/>
         <v>178</v>
@@ -9232,7 +9243,7 @@
         <v>3900767.3377807196</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="34">
         <f t="shared" si="22"/>
         <v>179</v>
@@ -9274,7 +9285,7 @@
         <v>3913383.2589115449</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="34">
         <f t="shared" si="22"/>
         <v>180</v>
@@ -9316,7 +9327,7 @@
         <v>3925840.778068027</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="34">
         <f t="shared" si="22"/>
         <v>181</v>
@@ -9358,7 +9369,7 @@
         <v>3938138.6412345357</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="34">
         <f t="shared" si="22"/>
         <v>182</v>
@@ -9400,7 +9411,7 @@
         <v>3950275.5844678171</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="34">
         <f t="shared" si="22"/>
         <v>183</v>
@@ -9442,7 +9453,7 @@
         <v>3962250.3338183993</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="34">
         <f t="shared" si="22"/>
         <v>184</v>
@@ -9484,7 +9495,7 @@
         <v>3974061.6052513784</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="34">
         <f t="shared" si="22"/>
         <v>185</v>
@@ -9526,7 +9537,7 @@
         <v>3985708.1045665732</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="34">
         <f t="shared" si="22"/>
         <v>186</v>
@@ -9568,7 +9579,7 @@
         <v>3997188.5273180506</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="34">
         <f t="shared" si="22"/>
         <v>187</v>
@@ -9610,7 +9621,7 @@
         <v>4008501.5587330153</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="34">
         <f t="shared" si="22"/>
         <v>188</v>
@@ -9652,7 +9663,7 @@
         <v>4019645.8736300529</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="34">
         <f t="shared" si="22"/>
         <v>189</v>
@@ -9694,7 +9705,7 @@
         <v>4030620.1363367299</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="34">
         <f t="shared" si="22"/>
         <v>190</v>
@@ -9736,7 +9747,7 @@
         <v>4041423.0006065392</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="34">
         <f t="shared" si="22"/>
         <v>191</v>
@@ -9778,7 +9789,7 @@
         <v>4052053.1095351889</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="34">
         <f t="shared" si="22"/>
         <v>192</v>
@@ -9820,7 +9831,7 @@
         <v>4062509.0954762283</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="34">
         <f t="shared" si="22"/>
         <v>193</v>
@@ -9862,7 +9873,7 @@
         <v>4072789.5799560053</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="34">
         <f t="shared" ref="A211:A274" si="31">IF(Values_Entered,A210+1,"")</f>
         <v>194</v>
@@ -9904,7 +9915,7 @@
         <v>4082893.1735879518</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="34">
         <f t="shared" si="31"/>
         <v>195</v>
@@ -9946,7 +9957,7 @@
         <v>4092818.4759861887</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="34">
         <f t="shared" si="31"/>
         <v>196</v>
@@ -9988,7 +9999,7 @@
         <v>4102564.0756784496</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="34">
         <f t="shared" si="31"/>
         <v>197</v>
@@ -10030,7 +10041,7 @@
         <v>4112128.5500183119</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="34">
         <f t="shared" si="31"/>
         <v>198</v>
@@ -10072,7 +10083,7 @@
         <v>4121510.4650967359</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="34">
         <f t="shared" si="31"/>
         <v>199</v>
@@ -10114,7 +10125,7 @@
         <v>4130708.3756529018</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="34">
         <f t="shared" si="31"/>
         <v>200</v>
@@ -10156,7 +10167,7 @@
         <v>4139720.8249843419</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="34">
         <f t="shared" si="31"/>
         <v>201</v>
@@ -10198,7 +10209,7 @@
         <v>4148546.3448563605</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="34">
         <f t="shared" si="31"/>
         <v>202</v>
@@ -10240,7 +10251,7 @@
         <v>4157183.4554107371</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="34">
         <f t="shared" si="31"/>
         <v>203</v>
@@ -10282,7 +10293,7 @@
         <v>4165630.6650737068</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="34">
         <f t="shared" si="31"/>
         <v>204</v>
@@ -10324,7 +10335,7 @@
         <v>4173886.470463213</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="34">
         <f t="shared" si="31"/>
         <v>205</v>
@@ -10366,7 +10377,7 @@
         <v>4181949.356295424</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="34">
         <f t="shared" si="31"/>
         <v>206</v>
@@ -10408,7 +10419,7 @@
         <v>4189817.7952905111</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="34">
         <f t="shared" si="31"/>
         <v>207</v>
@@ -10450,7 +10461,7 @@
         <v>4197490.2480776804</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="34">
         <f t="shared" si="31"/>
         <v>208</v>
@@ -10492,7 +10503,7 @@
         <v>4204965.1630994529</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="34">
         <f t="shared" si="31"/>
         <v>209</v>
@@ -10534,7 +10545,7 @@
         <v>4212240.9765151851</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="34">
         <f t="shared" si="31"/>
         <v>210</v>
@@ -10576,7 +10587,7 @@
         <v>4219316.1121038301</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="34">
         <f t="shared" si="31"/>
         <v>211</v>
@@ -10618,7 +10629,7 @@
         <v>4226188.9811659222</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="34">
         <f t="shared" si="31"/>
         <v>212</v>
@@ -10660,7 +10671,7 @@
         <v>4232857.9824247938</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="34">
         <f t="shared" si="31"/>
         <v>213</v>
@@ -10702,7 +10713,7 @@
         <v>4239321.5019270033</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="34">
         <f t="shared" si="31"/>
         <v>214</v>
@@ -10744,7 +10755,7 @@
         <v>4245577.9129419755</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="34">
         <f t="shared" si="31"/>
         <v>215</v>
@@ -10786,7 +10797,7 @@
         <v>4251625.5758608542</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="34">
         <f t="shared" si="31"/>
         <v>216</v>
@@ -10828,7 +10839,7 @@
         <v>4257462.8380945455</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="34">
         <f t="shared" si="31"/>
         <v>217</v>
@@ -10870,7 +10881,7 @@
         <v>4263088.0339709576</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="34">
         <f t="shared" si="31"/>
         <v>218</v>
@@ -10912,7 +10923,7 @@
         <v>4268499.4846314294</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="34">
         <f t="shared" si="31"/>
         <v>219</v>
@@ -10954,7 +10965,7 @@
         <v>4273695.4979263349</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="34">
         <f t="shared" si="31"/>
         <v>220</v>
@@ -10996,7 +11007,7 @@
         <v>4278674.368309862</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="34">
         <f t="shared" si="31"/>
         <v>221</v>
@@ -11038,7 +11049,7 @@
         <v>4283434.3767339634</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="34">
         <f t="shared" si="31"/>
         <v>222</v>
@@ -11080,7 +11091,7 @@
         <v>4287973.7905414598</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="34">
         <f t="shared" si="31"/>
         <v>223</v>
@@ -11122,7 +11133,7 @@
         <v>4292290.8633583039</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="34">
         <f t="shared" si="31"/>
         <v>224</v>
@@ -11164,7 +11175,7 @@
         <v>4296383.8349849861</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="34">
         <f t="shared" si="31"/>
         <v>225</v>
@@ -11206,7 +11217,7 @@
         <v>4300250.9312870838</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="34">
         <f t="shared" si="31"/>
         <v>226</v>
@@ -11248,7 +11259,7 @@
         <v>4303890.3640849441</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="34">
         <f t="shared" si="31"/>
         <v>227</v>
@@ -11290,7 +11301,7 @@
         <v>4307300.3310424918</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="34">
         <f t="shared" si="31"/>
         <v>228</v>
@@ -11332,7 +11343,7 @@
         <v>4310479.0155551583</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="34">
         <f t="shared" si="31"/>
         <v>229</v>
@@ -11374,7 +11385,7 @@
         <v>4313424.5866369205</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="34">
         <f t="shared" si="31"/>
         <v>230</v>
@@ -11416,7 +11427,7 @@
         <v>4316135.1988064516</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="34">
         <f t="shared" si="31"/>
         <v>231</v>
@@ -11458,7 +11469,7 @@
         <v>4318608.9919723626</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="34">
         <f t="shared" si="31"/>
         <v>232</v>
@@ -11500,7 +11511,7 @@
         <v>4320844.091317541</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="34">
         <f t="shared" si="31"/>
         <v>233</v>
@@ -11542,7 +11553,7 @@
         <v>4322838.6071825735</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="34">
         <f t="shared" si="31"/>
         <v>234</v>
@@ -11584,7 +11595,7 @@
         <v>4324590.6349482425</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="34">
         <f t="shared" si="31"/>
         <v>235</v>
@@ -11626,7 +11637,7 @@
         <v>4326098.2549170936</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="34">
         <f t="shared" si="31"/>
         <v>236</v>
@@ -11668,7 +11679,7 @@
         <v>4327359.5321940696</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="34">
         <f t="shared" si="31"/>
         <v>237</v>
@@ -11710,7 +11721,7 @@
         <v>4328372.5165661927</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="34">
         <f t="shared" si="31"/>
         <v>238</v>
@@ -11752,7 +11763,7 @@
         <v>4329135.2423812998</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="34">
         <f t="shared" si="31"/>
         <v>239</v>
@@ -11794,7 +11805,7 @@
         <v>4329645.7284258138</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="34">
         <f t="shared" si="31"/>
         <v>240</v>
@@ -11836,7 +11847,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="34">
         <f t="shared" si="31"/>
         <v>241</v>
@@ -11878,7 +11889,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="34">
         <f t="shared" si="31"/>
         <v>242</v>
@@ -11920,7 +11931,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="34">
         <f t="shared" si="31"/>
         <v>243</v>
@@ -11962,7 +11973,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="34">
         <f t="shared" si="31"/>
         <v>244</v>
@@ -12004,7 +12015,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="34">
         <f t="shared" si="31"/>
         <v>245</v>
@@ -12046,7 +12057,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="34">
         <f t="shared" si="31"/>
         <v>246</v>
@@ -12088,7 +12099,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="34">
         <f t="shared" si="31"/>
         <v>247</v>
@@ -12130,7 +12141,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="34">
         <f t="shared" si="31"/>
         <v>248</v>
@@ -12172,7 +12183,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="34">
         <f t="shared" si="31"/>
         <v>249</v>
@@ -12214,7 +12225,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="34">
         <f t="shared" si="31"/>
         <v>250</v>
@@ -12256,7 +12267,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="34">
         <f t="shared" si="31"/>
         <v>251</v>
@@ -12298,7 +12309,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="34">
         <f t="shared" si="31"/>
         <v>252</v>
@@ -12340,7 +12351,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="34">
         <f t="shared" si="31"/>
         <v>253</v>
@@ -12382,7 +12393,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="34">
         <f t="shared" si="31"/>
         <v>254</v>
@@ -12424,7 +12435,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="34">
         <f t="shared" si="31"/>
         <v>255</v>
@@ -12466,7 +12477,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="34">
         <f t="shared" si="31"/>
         <v>256</v>
@@ -12508,7 +12519,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="34">
         <f t="shared" si="31"/>
         <v>257</v>
@@ -12550,7 +12561,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="34">
         <f t="shared" ref="A275:A338" si="40">IF(Values_Entered,A274+1,"")</f>
         <v>258</v>
@@ -12592,7 +12603,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="34">
         <f t="shared" si="40"/>
         <v>259</v>
@@ -12634,7 +12645,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="34">
         <f t="shared" si="40"/>
         <v>260</v>
@@ -12676,7 +12687,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="34">
         <f t="shared" si="40"/>
         <v>261</v>
@@ -12718,7 +12729,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="34">
         <f t="shared" si="40"/>
         <v>262</v>
@@ -12760,7 +12771,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="34">
         <f t="shared" si="40"/>
         <v>263</v>
@@ -12802,7 +12813,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="34">
         <f t="shared" si="40"/>
         <v>264</v>
@@ -12844,7 +12855,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="34">
         <f t="shared" si="40"/>
         <v>265</v>
@@ -12886,7 +12897,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="34">
         <f t="shared" si="40"/>
         <v>266</v>
@@ -12928,7 +12939,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="34">
         <f t="shared" si="40"/>
         <v>267</v>
@@ -12970,7 +12981,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="34">
         <f t="shared" si="40"/>
         <v>268</v>
@@ -13012,7 +13023,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="34">
         <f t="shared" si="40"/>
         <v>269</v>
@@ -13054,7 +13065,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="34">
         <f t="shared" si="40"/>
         <v>270</v>
@@ -13096,7 +13107,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="34">
         <f t="shared" si="40"/>
         <v>271</v>
@@ -13138,7 +13149,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="34">
         <f t="shared" si="40"/>
         <v>272</v>
@@ -13180,7 +13191,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="34">
         <f t="shared" si="40"/>
         <v>273</v>
@@ -13222,7 +13233,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="34">
         <f t="shared" si="40"/>
         <v>274</v>
@@ -13264,7 +13275,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="34">
         <f t="shared" si="40"/>
         <v>275</v>
@@ -13306,7 +13317,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="34">
         <f t="shared" si="40"/>
         <v>276</v>
@@ -13348,7 +13359,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="34">
         <f t="shared" si="40"/>
         <v>277</v>
@@ -13390,7 +13401,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="34">
         <f t="shared" si="40"/>
         <v>278</v>
@@ -13432,7 +13443,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="34">
         <f t="shared" si="40"/>
         <v>279</v>
@@ -13474,7 +13485,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="34">
         <f t="shared" si="40"/>
         <v>280</v>
@@ -13516,7 +13527,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="34">
         <f t="shared" si="40"/>
         <v>281</v>
@@ -13558,7 +13569,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="34">
         <f t="shared" si="40"/>
         <v>282</v>
@@ -13600,7 +13611,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="34">
         <f t="shared" si="40"/>
         <v>283</v>
@@ -13642,7 +13653,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="34">
         <f t="shared" si="40"/>
         <v>284</v>
@@ -13684,7 +13695,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="34">
         <f t="shared" si="40"/>
         <v>285</v>
@@ -13726,7 +13737,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="34">
         <f t="shared" si="40"/>
         <v>286</v>
@@ -13768,7 +13779,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="34">
         <f t="shared" si="40"/>
         <v>287</v>
@@ -13810,7 +13821,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="34">
         <f t="shared" si="40"/>
         <v>288</v>
@@ -13852,7 +13863,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="34">
         <f t="shared" si="40"/>
         <v>289</v>
@@ -13894,7 +13905,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="34">
         <f t="shared" si="40"/>
         <v>290</v>
@@ -13936,7 +13947,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="34">
         <f t="shared" si="40"/>
         <v>291</v>
@@ -13978,7 +13989,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="34">
         <f t="shared" si="40"/>
         <v>292</v>
@@ -14020,7 +14031,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="34">
         <f t="shared" si="40"/>
         <v>293</v>
@@ -14062,7 +14073,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="34">
         <f t="shared" si="40"/>
         <v>294</v>
@@ -14104,7 +14115,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="34">
         <f t="shared" si="40"/>
         <v>295</v>
@@ -14146,7 +14157,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="34">
         <f t="shared" si="40"/>
         <v>296</v>
@@ -14188,7 +14199,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="34">
         <f t="shared" si="40"/>
         <v>297</v>
@@ -14230,7 +14241,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="34">
         <f t="shared" si="40"/>
         <v>298</v>
@@ -14272,7 +14283,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="34">
         <f t="shared" si="40"/>
         <v>299</v>
@@ -14314,7 +14325,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="34">
         <f t="shared" si="40"/>
         <v>300</v>
@@ -14356,7 +14367,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="34">
         <f t="shared" si="40"/>
         <v>301</v>
@@ -14398,7 +14409,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="34">
         <f t="shared" si="40"/>
         <v>302</v>
@@ -14440,7 +14451,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="34">
         <f t="shared" si="40"/>
         <v>303</v>
@@ -14482,7 +14493,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="321" spans="1:10">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="34">
         <f t="shared" si="40"/>
         <v>304</v>
@@ -14524,7 +14535,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="322" spans="1:10">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="34">
         <f t="shared" si="40"/>
         <v>305</v>
@@ -14566,7 +14577,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="323" spans="1:10">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="34">
         <f t="shared" si="40"/>
         <v>306</v>
@@ -14608,7 +14619,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="324" spans="1:10">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="34">
         <f t="shared" si="40"/>
         <v>307</v>
@@ -14650,7 +14661,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="325" spans="1:10">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="34">
         <f t="shared" si="40"/>
         <v>308</v>
@@ -14692,7 +14703,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="326" spans="1:10">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="34">
         <f t="shared" si="40"/>
         <v>309</v>
@@ -14734,7 +14745,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="327" spans="1:10">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="34">
         <f t="shared" si="40"/>
         <v>310</v>
@@ -14776,7 +14787,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="328" spans="1:10">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="34">
         <f t="shared" si="40"/>
         <v>311</v>
@@ -14818,7 +14829,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="329" spans="1:10">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="34">
         <f t="shared" si="40"/>
         <v>312</v>
@@ -14860,7 +14871,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="330" spans="1:10">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="34">
         <f t="shared" si="40"/>
         <v>313</v>
@@ -14902,7 +14913,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="331" spans="1:10">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="34">
         <f t="shared" si="40"/>
         <v>314</v>
@@ -14944,7 +14955,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="332" spans="1:10">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="34">
         <f t="shared" si="40"/>
         <v>315</v>
@@ -14986,7 +14997,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="333" spans="1:10">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="34">
         <f t="shared" si="40"/>
         <v>316</v>
@@ -15028,7 +15039,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="334" spans="1:10">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="34">
         <f t="shared" si="40"/>
         <v>317</v>
@@ -15070,7 +15081,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="335" spans="1:10">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="34">
         <f t="shared" si="40"/>
         <v>318</v>
@@ -15112,7 +15123,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="336" spans="1:10">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="34">
         <f t="shared" si="40"/>
         <v>319</v>
@@ -15154,7 +15165,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="337" spans="1:10">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="34">
         <f t="shared" si="40"/>
         <v>320</v>
@@ -15196,7 +15207,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="338" spans="1:10">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="34">
         <f t="shared" si="40"/>
         <v>321</v>
@@ -15238,7 +15249,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="339" spans="1:10">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="34">
         <f t="shared" ref="A339:A402" si="49">IF(Values_Entered,A338+1,"")</f>
         <v>322</v>
@@ -15280,7 +15291,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="340" spans="1:10">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="34">
         <f t="shared" si="49"/>
         <v>323</v>
@@ -15322,7 +15333,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="341" spans="1:10">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="34">
         <f t="shared" si="49"/>
         <v>324</v>
@@ -15364,7 +15375,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="342" spans="1:10">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="34">
         <f t="shared" si="49"/>
         <v>325</v>
@@ -15406,7 +15417,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="343" spans="1:10">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="34">
         <f t="shared" si="49"/>
         <v>326</v>
@@ -15448,7 +15459,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="344" spans="1:10">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="34">
         <f t="shared" si="49"/>
         <v>327</v>
@@ -15490,7 +15501,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="345" spans="1:10">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="34">
         <f t="shared" si="49"/>
         <v>328</v>
@@ -15532,7 +15543,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="346" spans="1:10">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="34">
         <f t="shared" si="49"/>
         <v>329</v>
@@ -15574,7 +15585,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="347" spans="1:10">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="34">
         <f t="shared" si="49"/>
         <v>330</v>
@@ -15616,7 +15627,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="34">
         <f t="shared" si="49"/>
         <v>331</v>
@@ -15658,7 +15669,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="349" spans="1:10">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="34">
         <f t="shared" si="49"/>
         <v>332</v>
@@ -15700,7 +15711,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="350" spans="1:10">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="34">
         <f t="shared" si="49"/>
         <v>333</v>
@@ -15742,7 +15753,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="351" spans="1:10">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="34">
         <f t="shared" si="49"/>
         <v>334</v>
@@ -15784,7 +15795,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="352" spans="1:10">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="34">
         <f t="shared" si="49"/>
         <v>335</v>
@@ -15826,7 +15837,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="353" spans="1:10">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="34">
         <f t="shared" si="49"/>
         <v>336</v>
@@ -15868,7 +15879,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="354" spans="1:10">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="34">
         <f t="shared" si="49"/>
         <v>337</v>
@@ -15910,7 +15921,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="34">
         <f t="shared" si="49"/>
         <v>338</v>
@@ -15952,7 +15963,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="356" spans="1:10">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="34">
         <f t="shared" si="49"/>
         <v>339</v>
@@ -15994,7 +16005,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="357" spans="1:10">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="34">
         <f t="shared" si="49"/>
         <v>340</v>
@@ -16036,7 +16047,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="358" spans="1:10">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="34">
         <f t="shared" si="49"/>
         <v>341</v>
@@ -16078,7 +16089,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="359" spans="1:10">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="34">
         <f t="shared" si="49"/>
         <v>342</v>
@@ -16120,7 +16131,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="360" spans="1:10">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="34">
         <f t="shared" si="49"/>
         <v>343</v>
@@ -16162,7 +16173,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="361" spans="1:10">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="34">
         <f t="shared" si="49"/>
         <v>344</v>
@@ -16204,7 +16215,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="362" spans="1:10">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="34">
         <f t="shared" si="49"/>
         <v>345</v>
@@ -16246,7 +16257,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="363" spans="1:10">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="34">
         <f t="shared" si="49"/>
         <v>346</v>
@@ -16288,7 +16299,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="364" spans="1:10">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="34">
         <f t="shared" si="49"/>
         <v>347</v>
@@ -16330,7 +16341,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="365" spans="1:10">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="34">
         <f t="shared" si="49"/>
         <v>348</v>
@@ -16372,7 +16383,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="366" spans="1:10">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="34">
         <f t="shared" si="49"/>
         <v>349</v>
@@ -16414,7 +16425,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="367" spans="1:10">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" s="34">
         <f t="shared" si="49"/>
         <v>350</v>
@@ -16456,7 +16467,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="368" spans="1:10">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="34">
         <f t="shared" si="49"/>
         <v>351</v>
@@ -16498,7 +16509,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="369" spans="1:10">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" s="34">
         <f t="shared" si="49"/>
         <v>352</v>
@@ -16540,7 +16551,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="370" spans="1:10">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="34">
         <f t="shared" si="49"/>
         <v>353</v>
@@ -16582,7 +16593,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="371" spans="1:10">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" s="34">
         <f t="shared" si="49"/>
         <v>354</v>
@@ -16624,7 +16635,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="372" spans="1:10">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" s="34">
         <f t="shared" si="49"/>
         <v>355</v>
@@ -16666,7 +16677,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="373" spans="1:10">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" s="34">
         <f t="shared" si="49"/>
         <v>356</v>
@@ -16708,7 +16719,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="374" spans="1:10">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" s="34">
         <f t="shared" si="49"/>
         <v>357</v>
@@ -16750,7 +16761,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="375" spans="1:10">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="34">
         <f t="shared" si="49"/>
         <v>358</v>
@@ -16792,7 +16803,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="376" spans="1:10">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" s="34">
         <f t="shared" si="49"/>
         <v>359</v>
@@ -16834,7 +16845,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="377" spans="1:10">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" s="34">
         <f t="shared" si="49"/>
         <v>360</v>
@@ -16876,7 +16887,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="378" spans="1:10">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" s="34">
         <f t="shared" si="49"/>
         <v>361</v>
@@ -16918,7 +16929,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="379" spans="1:10">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" s="34">
         <f t="shared" si="49"/>
         <v>362</v>
@@ -16960,7 +16971,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="380" spans="1:10">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" s="34">
         <f t="shared" si="49"/>
         <v>363</v>
@@ -17002,7 +17013,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="381" spans="1:10">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" s="34">
         <f t="shared" si="49"/>
         <v>364</v>
@@ -17044,7 +17055,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="382" spans="1:10">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" s="34">
         <f t="shared" si="49"/>
         <v>365</v>
@@ -17086,7 +17097,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="383" spans="1:10">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" s="34">
         <f t="shared" si="49"/>
         <v>366</v>
@@ -17128,7 +17139,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="384" spans="1:10">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" s="34">
         <f t="shared" si="49"/>
         <v>367</v>
@@ -17170,7 +17181,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="385" spans="1:10">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" s="34">
         <f t="shared" si="49"/>
         <v>368</v>
@@ -17212,7 +17223,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="386" spans="1:10">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" s="34">
         <f t="shared" si="49"/>
         <v>369</v>
@@ -17254,7 +17265,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="387" spans="1:10">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" s="34">
         <f t="shared" si="49"/>
         <v>370</v>
@@ -17296,7 +17307,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="388" spans="1:10">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" s="34">
         <f t="shared" si="49"/>
         <v>371</v>
@@ -17338,7 +17349,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="389" spans="1:10">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" s="34">
         <f t="shared" si="49"/>
         <v>372</v>
@@ -17380,7 +17391,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="390" spans="1:10">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" s="34">
         <f t="shared" si="49"/>
         <v>373</v>
@@ -17422,7 +17433,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="391" spans="1:10">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" s="34">
         <f t="shared" si="49"/>
         <v>374</v>
@@ -17464,7 +17475,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="392" spans="1:10">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" s="34">
         <f t="shared" si="49"/>
         <v>375</v>
@@ -17506,7 +17517,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="393" spans="1:10">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" s="34">
         <f t="shared" si="49"/>
         <v>376</v>
@@ -17548,7 +17559,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="394" spans="1:10">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" s="34">
         <f t="shared" si="49"/>
         <v>377</v>
@@ -17590,7 +17601,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="395" spans="1:10">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" s="34">
         <f t="shared" si="49"/>
         <v>378</v>
@@ -17632,7 +17643,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="396" spans="1:10">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" s="34">
         <f t="shared" si="49"/>
         <v>379</v>
@@ -17674,7 +17685,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="397" spans="1:10">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" s="34">
         <f t="shared" si="49"/>
         <v>380</v>
@@ -17716,7 +17727,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="398" spans="1:10">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" s="34">
         <f t="shared" si="49"/>
         <v>381</v>
@@ -17758,7 +17769,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="399" spans="1:10">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" s="34">
         <f t="shared" si="49"/>
         <v>382</v>
@@ -17800,7 +17811,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="400" spans="1:10">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" s="34">
         <f t="shared" si="49"/>
         <v>383</v>
@@ -17842,7 +17853,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="401" spans="1:10">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" s="34">
         <f t="shared" si="49"/>
         <v>384</v>
@@ -17884,7 +17895,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="402" spans="1:10">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" s="34">
         <f t="shared" si="49"/>
         <v>385</v>
@@ -17926,7 +17937,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="403" spans="1:10">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" s="34">
         <f t="shared" ref="A403:A466" si="59">IF(Values_Entered,A402+1,"")</f>
         <v>386</v>
@@ -17968,7 +17979,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="404" spans="1:10">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" s="34">
         <f t="shared" si="59"/>
         <v>387</v>
@@ -18010,7 +18021,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="405" spans="1:10">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" s="34">
         <f t="shared" si="59"/>
         <v>388</v>
@@ -18052,7 +18063,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="406" spans="1:10">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" s="34">
         <f t="shared" si="59"/>
         <v>389</v>
@@ -18094,7 +18105,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="407" spans="1:10">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" s="34">
         <f t="shared" si="59"/>
         <v>390</v>
@@ -18136,7 +18147,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="408" spans="1:10">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" s="34">
         <f t="shared" si="59"/>
         <v>391</v>
@@ -18178,7 +18189,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="409" spans="1:10">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" s="34">
         <f t="shared" si="59"/>
         <v>392</v>
@@ -18220,7 +18231,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="410" spans="1:10">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" s="34">
         <f t="shared" si="59"/>
         <v>393</v>
@@ -18262,7 +18273,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="411" spans="1:10">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" s="34">
         <f t="shared" si="59"/>
         <v>394</v>
@@ -18304,7 +18315,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="412" spans="1:10">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" s="34">
         <f t="shared" si="59"/>
         <v>395</v>
@@ -18346,7 +18357,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="413" spans="1:10">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" s="34">
         <f t="shared" si="59"/>
         <v>396</v>
@@ -18388,7 +18399,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="414" spans="1:10">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" s="34">
         <f t="shared" si="59"/>
         <v>397</v>
@@ -18430,7 +18441,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="415" spans="1:10">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" s="34">
         <f t="shared" si="59"/>
         <v>398</v>
@@ -18472,7 +18483,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="416" spans="1:10">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" s="34">
         <f t="shared" si="59"/>
         <v>399</v>
@@ -18514,7 +18525,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="417" spans="1:10">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" s="34">
         <f t="shared" si="59"/>
         <v>400</v>
@@ -18556,7 +18567,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="418" spans="1:10">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" s="34">
         <f t="shared" si="59"/>
         <v>401</v>
@@ -18598,7 +18609,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="419" spans="1:10">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" s="34">
         <f t="shared" si="59"/>
         <v>402</v>
@@ -18640,7 +18651,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="420" spans="1:10">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" s="34">
         <f t="shared" si="59"/>
         <v>403</v>
@@ -18682,7 +18693,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="421" spans="1:10">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" s="34">
         <f t="shared" si="59"/>
         <v>404</v>
@@ -18724,7 +18735,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="422" spans="1:10">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" s="34">
         <f t="shared" si="59"/>
         <v>405</v>
@@ -18766,7 +18777,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="423" spans="1:10">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" s="34">
         <f t="shared" si="59"/>
         <v>406</v>
@@ -18808,7 +18819,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="424" spans="1:10">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" s="34">
         <f t="shared" si="59"/>
         <v>407</v>
@@ -18850,7 +18861,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="425" spans="1:10">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" s="34">
         <f t="shared" si="59"/>
         <v>408</v>
@@ -18892,7 +18903,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="426" spans="1:10">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" s="34">
         <f t="shared" si="59"/>
         <v>409</v>
@@ -18934,7 +18945,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="427" spans="1:10">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" s="34">
         <f t="shared" si="59"/>
         <v>410</v>
@@ -18976,7 +18987,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="428" spans="1:10">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" s="34">
         <f t="shared" si="59"/>
         <v>411</v>
@@ -19018,7 +19029,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="429" spans="1:10">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" s="34">
         <f t="shared" si="59"/>
         <v>412</v>
@@ -19060,7 +19071,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="430" spans="1:10">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" s="34">
         <f t="shared" si="59"/>
         <v>413</v>
@@ -19102,7 +19113,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="431" spans="1:10">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" s="34">
         <f t="shared" si="59"/>
         <v>414</v>
@@ -19144,7 +19155,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="432" spans="1:10">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" s="34">
         <f t="shared" si="59"/>
         <v>415</v>
@@ -19186,7 +19197,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="433" spans="1:10">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" s="34">
         <f t="shared" si="59"/>
         <v>416</v>
@@ -19228,7 +19239,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="434" spans="1:10">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" s="34">
         <f t="shared" si="59"/>
         <v>417</v>
@@ -19270,7 +19281,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="435" spans="1:10">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" s="34">
         <f t="shared" si="59"/>
         <v>418</v>
@@ -19312,7 +19323,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="436" spans="1:10">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" s="34">
         <f t="shared" si="59"/>
         <v>419</v>
@@ -19354,7 +19365,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="437" spans="1:10">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" s="34">
         <f t="shared" si="59"/>
         <v>420</v>
@@ -19396,7 +19407,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="438" spans="1:10">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" s="34">
         <f t="shared" si="59"/>
         <v>421</v>
@@ -19438,7 +19449,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="439" spans="1:10">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" s="34">
         <f t="shared" si="59"/>
         <v>422</v>
@@ -19480,7 +19491,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="440" spans="1:10">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" s="34">
         <f t="shared" si="59"/>
         <v>423</v>
@@ -19522,7 +19533,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="441" spans="1:10">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" s="34">
         <f t="shared" si="59"/>
         <v>424</v>
@@ -19564,7 +19575,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="442" spans="1:10">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" s="34">
         <f t="shared" si="59"/>
         <v>425</v>
@@ -19606,7 +19617,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="443" spans="1:10">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" s="34">
         <f t="shared" si="59"/>
         <v>426</v>
@@ -19648,7 +19659,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="444" spans="1:10">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" s="34">
         <f t="shared" si="59"/>
         <v>427</v>
@@ -19690,7 +19701,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="445" spans="1:10">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" s="34">
         <f t="shared" si="59"/>
         <v>428</v>
@@ -19732,7 +19743,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="446" spans="1:10">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" s="34">
         <f t="shared" si="59"/>
         <v>429</v>
@@ -19774,7 +19785,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="447" spans="1:10">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" s="34">
         <f t="shared" si="59"/>
         <v>430</v>
@@ -19816,7 +19827,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="448" spans="1:10">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" s="34">
         <f t="shared" si="59"/>
         <v>431</v>
@@ -19858,7 +19869,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="449" spans="1:10">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" s="34">
         <f t="shared" si="59"/>
         <v>432</v>
@@ -19900,7 +19911,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="450" spans="1:10">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" s="34">
         <f t="shared" si="59"/>
         <v>433</v>
@@ -19942,7 +19953,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="451" spans="1:10">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" s="34">
         <f t="shared" si="59"/>
         <v>434</v>
@@ -19984,7 +19995,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="452" spans="1:10">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" s="34">
         <f t="shared" si="59"/>
         <v>435</v>
@@ -20026,7 +20037,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="453" spans="1:10">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" s="34">
         <f t="shared" si="59"/>
         <v>436</v>
@@ -20068,7 +20079,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="454" spans="1:10">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" s="34">
         <f t="shared" si="59"/>
         <v>437</v>
@@ -20110,7 +20121,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="455" spans="1:10">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" s="34">
         <f t="shared" si="59"/>
         <v>438</v>
@@ -20152,7 +20163,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="456" spans="1:10">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" s="34">
         <f t="shared" si="59"/>
         <v>439</v>
@@ -20194,7 +20205,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="457" spans="1:10">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" s="34">
         <f t="shared" si="59"/>
         <v>440</v>
@@ -20236,7 +20247,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="458" spans="1:10">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" s="34">
         <f t="shared" si="59"/>
         <v>441</v>
@@ -20278,7 +20289,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="459" spans="1:10">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" s="34">
         <f t="shared" si="59"/>
         <v>442</v>
@@ -20320,7 +20331,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="460" spans="1:10">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" s="34">
         <f t="shared" si="59"/>
         <v>443</v>
@@ -20362,7 +20373,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="461" spans="1:10">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" s="34">
         <f t="shared" si="59"/>
         <v>444</v>
@@ -20404,7 +20415,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="462" spans="1:10">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" s="34">
         <f t="shared" si="59"/>
         <v>445</v>
@@ -20446,7 +20457,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="463" spans="1:10">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" s="34">
         <f t="shared" si="59"/>
         <v>446</v>
@@ -20488,7 +20499,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="464" spans="1:10">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" s="34">
         <f t="shared" si="59"/>
         <v>447</v>
@@ -20530,7 +20541,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="465" spans="1:10">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" s="34">
         <f t="shared" si="59"/>
         <v>448</v>
@@ -20572,7 +20583,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="466" spans="1:10">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466" s="34">
         <f t="shared" si="59"/>
         <v>449</v>
@@ -20614,7 +20625,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="467" spans="1:10">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467" s="34">
         <f t="shared" ref="A467:A497" si="68">IF(Values_Entered,A466+1,"")</f>
         <v>450</v>
@@ -20656,7 +20667,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="468" spans="1:10">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468" s="34">
         <f t="shared" si="68"/>
         <v>451</v>
@@ -20698,7 +20709,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="469" spans="1:10">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" s="34">
         <f t="shared" si="68"/>
         <v>452</v>
@@ -20740,7 +20751,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="470" spans="1:10">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" s="34">
         <f t="shared" si="68"/>
         <v>453</v>
@@ -20782,7 +20793,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="471" spans="1:10">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471" s="34">
         <f t="shared" si="68"/>
         <v>454</v>
@@ -20824,7 +20835,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="472" spans="1:10">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472" s="34">
         <f t="shared" si="68"/>
         <v>455</v>
@@ -20866,7 +20877,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="473" spans="1:10">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" s="34">
         <f t="shared" si="68"/>
         <v>456</v>
@@ -20908,7 +20919,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="474" spans="1:10">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" s="34">
         <f t="shared" si="68"/>
         <v>457</v>
@@ -20950,7 +20961,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="475" spans="1:10">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475" s="34">
         <f t="shared" si="68"/>
         <v>458</v>
@@ -20992,7 +21003,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="476" spans="1:10">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476" s="34">
         <f t="shared" si="68"/>
         <v>459</v>
@@ -21034,7 +21045,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="477" spans="1:10">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" s="34">
         <f t="shared" si="68"/>
         <v>460</v>
@@ -21076,7 +21087,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="478" spans="1:10">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" s="34">
         <f t="shared" si="68"/>
         <v>461</v>
@@ -21118,7 +21129,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="479" spans="1:10">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" s="34">
         <f t="shared" si="68"/>
         <v>462</v>
@@ -21160,7 +21171,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="480" spans="1:10">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480" s="34">
         <f t="shared" si="68"/>
         <v>463</v>
@@ -21202,7 +21213,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="481" spans="1:10">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" s="34">
         <f t="shared" si="68"/>
         <v>464</v>
@@ -21244,7 +21255,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="482" spans="1:10">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" s="34">
         <f t="shared" si="68"/>
         <v>465</v>
@@ -21286,7 +21297,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="483" spans="1:10">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" s="34">
         <f t="shared" si="68"/>
         <v>466</v>
@@ -21328,7 +21339,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="484" spans="1:10">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" s="34">
         <f t="shared" si="68"/>
         <v>467</v>
@@ -21370,7 +21381,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="485" spans="1:10">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" s="34">
         <f t="shared" si="68"/>
         <v>468</v>
@@ -21412,7 +21423,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="486" spans="1:10">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" s="34">
         <f t="shared" si="68"/>
         <v>469</v>
@@ -21454,7 +21465,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="487" spans="1:10">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" s="34">
         <f t="shared" si="68"/>
         <v>470</v>
@@ -21496,7 +21507,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="488" spans="1:10">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" s="34">
         <f t="shared" si="68"/>
         <v>471</v>
@@ -21538,7 +21549,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="489" spans="1:10">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" s="34">
         <f t="shared" si="68"/>
         <v>472</v>
@@ -21580,7 +21591,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="490" spans="1:10">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" s="34">
         <f t="shared" si="68"/>
         <v>473</v>
@@ -21622,7 +21633,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="491" spans="1:10">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" s="34">
         <f t="shared" si="68"/>
         <v>474</v>
@@ -21664,7 +21675,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="492" spans="1:10">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" s="34">
         <f t="shared" si="68"/>
         <v>475</v>
@@ -21706,7 +21717,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="493" spans="1:10">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" s="34">
         <f t="shared" si="68"/>
         <v>476</v>
@@ -21748,7 +21759,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="494" spans="1:10">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" s="34">
         <f t="shared" si="68"/>
         <v>477</v>
@@ -21790,7 +21801,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="495" spans="1:10">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" s="34">
         <f t="shared" si="68"/>
         <v>478</v>
@@ -21832,7 +21843,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="496" spans="1:10">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" s="34">
         <f t="shared" si="68"/>
         <v>479</v>
@@ -21874,7 +21885,7 @@
         <v>4329901.9778015511</v>
       </c>
     </row>
-    <row r="497" spans="1:10">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" s="34">
         <f t="shared" si="68"/>
         <v>480</v>
@@ -21969,14 +21980,14 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21993,7 +22004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -22007,7 +22018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -22022,7 +22033,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -22037,7 +22048,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -22052,7 +22063,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -22066,7 +22077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -22080,7 +22091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -22098,7 +22109,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -22116,7 +22127,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -22131,7 +22142,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -22145,7 +22156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -22160,7 +22171,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -22174,7 +22185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -22188,7 +22199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -22202,18 +22213,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <f>SUM(B2:B15)</f>
         <v>69912</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -22221,7 +22232,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -22229,7 +22240,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -22237,7 +22248,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -22245,7 +22256,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -22260,18 +22271,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22288,7 +22299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -22300,11 +22311,11 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -22315,11 +22326,11 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -22330,11 +22341,11 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -22345,10 +22356,10 @@
         <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -22359,10 +22370,10 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -22373,14 +22384,14 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -22391,14 +22402,14 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -22413,7 +22424,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -22427,7 +22438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -22438,11 +22449,11 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -22453,10 +22464,10 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -22467,10 +22478,10 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -22481,21 +22492,21 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <f>SUM(B2:B14)</f>
         <v>147194.02000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="46" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -22503,7 +22514,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -22511,7 +22522,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -22519,7 +22530,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -22527,7 +22538,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -22546,34 +22557,34 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
     </row>
   </sheetData>
